--- a/data/trans_dic/P54_A_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>15,09; 22,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,65; 4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,11; 7,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>18,1; 24,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,19; 3,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,71; 4,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>17,49; 22,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,59; 3,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,61; 5,09</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>13,39; 20,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,15; 7,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,6; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>16,9; 23,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,18; 4,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,15; 6,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>16,1; 21,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,06; 5,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,12; 4,28</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>11,06; 28,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>0,75; 27,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>1,17; 7,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>16,76; 30,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>0,49; 4,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,2</t>
+          <t>0,87; 6,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>15,75; 27,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>1,08; 14,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,67; 5,62</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>15,28; 20,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,45; 6,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,33; 4,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>18,91; 23,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,47; 3,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,58; 4,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>17,53; 20,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,2; 4,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,68; 4,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>260868</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44726</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73938</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>308714</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36209</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>46548</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>569581</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>80935</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>120486</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>217240; 325216</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26954; 70565</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48011; 116047</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>262478; 356470</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21349; 58897</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29519; 69838</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>505406; 645281</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54541; 110456</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>85365; 166327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>207737</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52149</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17686</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>236654</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31627</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>60887</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>444391</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83776</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>78573</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>169178; 258045</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29222; 98842</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7881; 33803</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>198628; 278350</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16118; 56827</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41308; 88892</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>392696; 512657</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>56124; 137341</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>55487; 112034</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>64051</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30058</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13338</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>78447</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6809</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10761</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>142499</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36867</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24098</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39148; 101711</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3152; 115258</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4575; 28284</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56838; 104101</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1947; 19989</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3249; 24345</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>109169; 188441</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8847; 118725</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12719; 42797</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>532656</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>126933</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>104962</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>623815</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>74645</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>118196</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1156471</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>201578</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>223158</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>467046; 618735</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83511; 223948</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>75533; 150992</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>560664; 693114</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>52247; 106805</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>87928; 152422</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1055559; 1254716</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>153066; 296720</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>178348; 278360</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>